--- a/(microsoft-azure)_Data.xlsx
+++ b/(microsoft-azure)_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="1278">
   <si>
     <t>Website</t>
   </si>
@@ -3406,63 +3406,63 @@
     <t>www.accenture.com</t>
   </si>
   <si>
+    <t>Julie Sweet</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/julie-sweet</t>
   </si>
   <si>
-    <t>Julie Sweet</t>
-  </si>
-  <si>
     <t>Dominik S. RichterUwe Voss</t>
   </si>
   <si>
     <t>www.genesys.com</t>
   </si>
   <si>
+    <t>Tony BatesTony Bates on LinkedIn: Sustainability and relationshipsPaul Segre</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/tony-bates-679227a5</t>
   </si>
   <si>
-    <t>Tony BatesTony Bates on LinkedIn: Sustainability and relationshipsPaul Segre</t>
+    <t>Olivier PomelJan Moran</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/olivierpomel</t>
   </si>
   <si>
-    <t>Olivier PomelJan Moran</t>
-  </si>
-  <si>
     <t>Peter LilleyPeter Lilley's PostInstaclustrSramana Mitra</t>
   </si>
   <si>
     <t>www.withjoy.com</t>
   </si>
   <si>
+    <t>Vishal J.JoyRichie MathewsMadhur JoshiJoy Meserve</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/vishaljoshi</t>
   </si>
   <si>
-    <t>Vishal J.JoyRichie MathewsMadhur JoshiJoy Meserve</t>
-  </si>
-  <si>
     <t>Amit YoranAmit Yoran on LinkedIn: #tenable | 82 commentsShannon O'Dowd's PostAmit Yoran</t>
   </si>
   <si>
+    <t>Mark WensellTerazoMichael Kirillin</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/markgwensell</t>
   </si>
   <si>
-    <t>Mark WensellTerazoMichael Kirillin</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/tasod</t>
   </si>
   <si>
     <t>www.broadcom.com</t>
   </si>
   <si>
+    <t>Hock Tan</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/hock-tan</t>
   </si>
   <si>
-    <t>Hock Tan</t>
-  </si>
-  <si>
     <t>AplicorStuart Sopp</t>
   </si>
   <si>
@@ -3475,12 +3475,12 @@
     <t>www.qumulo.com</t>
   </si>
   <si>
+    <t>Bill Richter</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/bill-richter-839aaa8</t>
   </si>
   <si>
-    <t>Bill Richter</t>
-  </si>
-  <si>
     <t>Jeremy JohnsonAndelaJeremy Johnson, CEO &amp; Co</t>
   </si>
   <si>
@@ -3493,54 +3493,54 @@
     <t>www.headspace.com</t>
   </si>
   <si>
+    <t>Russell GlassSean Brecker's PostBrett Dowis</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/russellglass</t>
   </si>
   <si>
-    <t>Russell GlassSean Brecker's PostBrett Dowis</t>
-  </si>
-  <si>
     <t>Jorge HeraudBlue River TechnologyBlue River Technology's PostJim OstrowskiBlue River Technology's Postcraig brown</t>
   </si>
   <si>
     <t>www.elastic.co</t>
   </si>
   <si>
+    <t>Ashutosh KulkarniShay BanonLeadership TeamBob JoyceThe new Elastic CEO puts cloud front and centerAshutosh Kulkarni</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/kulkarniashutosh</t>
   </si>
   <si>
-    <t>Ashutosh KulkarniShay BanonLeadership TeamBob JoyceThe new Elastic CEO puts cloud front and centerAshutosh Kulkarni</t>
-  </si>
-  <si>
     <t>www.auth0.com</t>
   </si>
   <si>
+    <t>Eugenio Pace</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/eugeniop</t>
   </si>
   <si>
-    <t>Eugenio Pace</t>
-  </si>
-  <si>
     <t>Dev IttycheriaLeadershipMegan Bruni (Johannes)'s PostWhy Join MongoDB with CEO Dev IttycheriaMongoDB president and CEO Dev Ittycheria on first quarter ...Why Join MongoDB with CEO Dev IttycheriaEm Blankenberger's PostManagement Team</t>
   </si>
   <si>
     <t>www.degreed.com</t>
   </si>
   <si>
+    <t>David Blake</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/davidblake</t>
   </si>
   <si>
-    <t>David Blake</t>
-  </si>
-  <si>
     <t>Sumo Logic Names Joe Kim as President and Chief ...Ramin Sayar</t>
   </si>
   <si>
+    <t>Steve Corndell</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/turbonomic</t>
   </si>
   <si>
-    <t>Steve Corndell</t>
-  </si>
-  <si>
     <t>Adam Wilson | LinkedInSean Kandel | LinkedInTrifacta</t>
   </si>
   <si>
@@ -3550,183 +3550,183 @@
     <t>www.mckesson.com</t>
   </si>
   <si>
+    <t>Brian Tyler</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/brian-tyler</t>
   </si>
   <si>
-    <t>Brian Tyler</t>
+    <t>Tony Spring</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/tony-spring</t>
   </si>
   <si>
-    <t>Tony Spring</t>
-  </si>
-  <si>
     <t>www.allininteractive.com</t>
   </si>
   <si>
+    <t>All</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/company/allin-corporation</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Tom AllansonStephanie (Alsbrooks) Hanson</t>
   </si>
   <si>
     <t>www.appneta.com</t>
   </si>
   <si>
+    <t>Matt StevensJim Melvin</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/matt-stevens-b305785</t>
   </si>
   <si>
-    <t>Matt StevensJim Melvin</t>
-  </si>
-  <si>
     <t>www.swoop.com</t>
   </si>
   <si>
+    <t>Amir Ghorbani</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/amirghorbani</t>
   </si>
   <si>
-    <t>Amir Ghorbani</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/gregsbrown</t>
   </si>
   <si>
     <t>www.pax8.com</t>
   </si>
   <si>
+    <t>John Street</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/john-street-pax8#:~:text=John%20Street%20%2D%20CEO%2C%20Chairman%2C%20Founder%20%2D%20Pax8%20%7C%20LinkedIn</t>
   </si>
   <si>
-    <t>John Street</t>
-  </si>
-  <si>
     <t>www.okta.com</t>
   </si>
   <si>
+    <t>Todd McKinnon, Okta CEO on Oktane 2023</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/posts/okta-inc-_todd-mckinnon-okta-ceo-on-oktane-2023-activity-7115481207500349441-Xcsc</t>
   </si>
   <si>
-    <t>Todd McKinnon, Okta CEO on Oktane 2023</t>
-  </si>
-  <si>
     <t>www.haulio.io</t>
   </si>
   <si>
+    <t>Alvin Ea</t>
+  </si>
+  <si>
     <t>https://sg.linkedin.com/in/alvinea#:~:text=Alvin%20Ea%20%2D%20CEO%2C%20Co%2DFounder%20%2D%20Haulio%20%7C%20LinkedIn</t>
   </si>
   <si>
-    <t>Alvin Ea</t>
-  </si>
-  <si>
     <t>www.freightrover.com</t>
   </si>
   <si>
+    <t>Reed Rivers</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/reedrivers</t>
   </si>
   <si>
-    <t>Reed Rivers</t>
-  </si>
-  <si>
     <t>www.bluejeans.com</t>
   </si>
   <si>
+    <t>quentin gallivan</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/quentin-gallivan-185868242</t>
   </si>
   <si>
-    <t>quentin gallivan</t>
-  </si>
-  <si>
     <t>George FraserReece Davidson on LinkedIn: Fivetran CEO Joins NYSE ...Taylor BrownJelena Buvač's PostErin McCann on LinkedIn: CNBC TV</t>
   </si>
   <si>
     <t>www.gooddata.com</t>
   </si>
   <si>
+    <t>Roman Stanek</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/stanekroman</t>
   </si>
   <si>
-    <t>Roman Stanek</t>
-  </si>
-  <si>
     <t>www.hcsafety.com</t>
   </si>
   <si>
+    <t>Florian Otto</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/florianotto</t>
   </si>
   <si>
-    <t>Florian Otto</t>
-  </si>
-  <si>
     <t>www.windriver.com</t>
   </si>
   <si>
+    <t>Bryan LeBlanc</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/bryanleblanc</t>
   </si>
   <si>
-    <t>Bryan LeBlanc</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/rowant</t>
   </si>
   <si>
     <t>Marius MoscoviciMetric Insights, Inc.Grayson Stebbins</t>
   </si>
   <si>
+    <t>Evan Richman</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/evanrichman</t>
   </si>
   <si>
-    <t>Evan Richman</t>
-  </si>
-  <si>
     <t>www.cradlepoint.com</t>
   </si>
   <si>
+    <t>George MulhernAnd the winner is... 🥁... George Mulhern, CEO of CradlepointCradlepointMark BoleScott Lewis</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/geomulhern</t>
   </si>
   <si>
-    <t>George MulhernAnd the winner is... 🥁... George Mulhern, CEO of CradlepointCradlepointMark BoleScott Lewis</t>
-  </si>
-  <si>
     <t>www.cognizant.com</t>
   </si>
   <si>
+    <t>Ravi Kumar S</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/imravikumars</t>
   </si>
   <si>
-    <t>Ravi Kumar S</t>
-  </si>
-  <si>
     <t>www.openpeak.com</t>
   </si>
   <si>
+    <t>Diego Oppenheimer</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/doppenheimer</t>
   </si>
   <si>
-    <t>Diego Oppenheimer</t>
-  </si>
-  <si>
     <t>www.criteo.com</t>
   </si>
   <si>
+    <t>Megan ClarkenCriteoCriteo CEO Megan Clarken goes one</t>
+  </si>
+  <si>
     <t>https://fr.linkedin.com/in/meganclarken</t>
   </si>
   <si>
-    <t>Megan ClarkenCriteoCriteo CEO Megan Clarken goes one</t>
-  </si>
-  <si>
     <t>www.pagerduty.com</t>
   </si>
   <si>
+    <t>Jennifer Tejada</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/jenntejada1</t>
   </si>
   <si>
-    <t>Jennifer Tejada</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/frankacalderoni</t>
   </si>
   <si>
@@ -3739,63 +3739,63 @@
     <t>www.circleci.com</t>
   </si>
   <si>
+    <t>Jim Rose</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/jimdotrose</t>
   </si>
   <si>
-    <t>Jim Rose</t>
+    <t>NokNokOren FaragePhillip DunkelbergerTimmy Wassouf</t>
   </si>
   <si>
     <t>https://www.linkedin.com/company/noknok-app</t>
   </si>
   <si>
-    <t>NokNokOren FaragePhillip DunkelbergerTimmy Wassouf</t>
-  </si>
-  <si>
     <t>https://sg.linkedin.com/in/simonwebstershufl#:~:text=Simon%20Webster%20%2D%20Group%20CEO%20%2D%20VISTRA%20%7C%20LinkedIn</t>
   </si>
   <si>
     <t>www.virginpulse.com</t>
   </si>
   <si>
+    <t>Chris MichalakChris Michalak on LinkedIn: Virgin Pulse CEO on Building ...Chris Michalak's PostChris Michalak's Post</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/christopher-a-michalak</t>
   </si>
   <si>
-    <t>Chris MichalakChris Michalak on LinkedIn: Virgin Pulse CEO on Building ...Chris Michalak's PostChris Michalak's Post</t>
-  </si>
-  <si>
     <t>Joseph LubinJoseph LubinEmmanuel M.</t>
   </si>
   <si>
+    <t>S PichaiSundar Pichai CEO GoogleSundar Pichai</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/s-pichai-69b0b434</t>
   </si>
   <si>
-    <t>S PichaiSundar Pichai CEO GoogleSundar Pichai</t>
-  </si>
-  <si>
     <t>www.colabra.app</t>
   </si>
   <si>
+    <t>Mike Fromhold</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/mikefromhold</t>
   </si>
   <si>
-    <t>Mike Fromhold</t>
+    <t>Mike Tung 🤖</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/miketung</t>
   </si>
   <si>
-    <t>Mike Tung 🤖</t>
-  </si>
-  <si>
     <t>www.definedcrowd.com</t>
   </si>
   <si>
+    <t>Daniela Braga, PhD</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/danielabragaspeech</t>
   </si>
   <si>
-    <t>Daniela Braga, PhD</t>
-  </si>
-  <si>
     <t>Dev IttycheriaLeadershipManagement Team</t>
   </si>
   <si>
@@ -3832,19 +3832,19 @@
     <t>www.datometry.com</t>
   </si>
   <si>
+    <t>Mike Waas</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/mikewaas</t>
   </si>
   <si>
-    <t>Mike Waas</t>
-  </si>
-  <si>
     <t>www.assette.com</t>
   </si>
   <si>
+    <t>AssetteJim Dieter</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/company/assette</t>
-  </si>
-  <si>
-    <t>AssetteJim Dieter</t>
   </si>
   <si>
     <t>Amit YoranAmit Yoran's PostShannon O'Dowd's PostTenable LeadershipAmit Yoran</t>
@@ -3860,7 +3860,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3871,13 +3871,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4345,28 +4338,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4375,118 +4371,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4495,7 +4488,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4842,17 +4835,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C580"/>
+  <dimension ref="A1:C606"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A597" workbookViewId="0">
+      <selection activeCell="B608" sqref="B608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="52.8148148148148" customWidth="1"/>
     <col min="2" max="2" width="43.6574074074074" customWidth="1"/>
-    <col min="3" max="3" width="75.0277777777778" customWidth="1"/>
+    <col min="3" max="3" width="56.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9282,10 +9275,10 @@
         <v>925</v>
       </c>
       <c r="B403" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>927</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -9293,10 +9286,10 @@
         <v>165</v>
       </c>
       <c r="B404" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C404" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -9304,10 +9297,10 @@
         <v>361</v>
       </c>
       <c r="B405" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C405" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -9315,10 +9308,10 @@
         <v>57</v>
       </c>
       <c r="B406" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C406" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -9326,10 +9319,10 @@
         <v>36</v>
       </c>
       <c r="B407" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C407" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -9337,10 +9330,10 @@
         <v>277</v>
       </c>
       <c r="B408" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -9348,10 +9341,10 @@
         <v>84</v>
       </c>
       <c r="B409" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C409" s="2" t="s">
         <v>1127</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -9359,10 +9352,10 @@
         <v>1055</v>
       </c>
       <c r="B410" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C410" s="2" t="s">
         <v>1057</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -9381,10 +9374,10 @@
         <v>794</v>
       </c>
       <c r="B412" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C412" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -9403,10 +9396,10 @@
         <v>567</v>
       </c>
       <c r="B414" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C414" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -9425,10 +9418,10 @@
         <v>501</v>
       </c>
       <c r="B416" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C416" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -9436,10 +9429,10 @@
         <v>607</v>
       </c>
       <c r="B417" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C417" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -9447,10 +9440,10 @@
         <v>747</v>
       </c>
       <c r="B418" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C418" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -9458,10 +9451,10 @@
         <v>817</v>
       </c>
       <c r="B419" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C419" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -9469,10 +9462,10 @@
         <v>703</v>
       </c>
       <c r="B420" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C420" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -9480,10 +9473,10 @@
         <v>1035</v>
       </c>
       <c r="B421" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C421" s="2" t="s">
         <v>1037</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -9491,10 +9484,10 @@
         <v>24</v>
       </c>
       <c r="B422" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C422" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -9502,10 +9495,10 @@
         <v>1041</v>
       </c>
       <c r="B423" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C423" s="2" t="s">
         <v>1043</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -9524,10 +9517,10 @@
         <v>876</v>
       </c>
       <c r="B425" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C425" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -9535,10 +9528,10 @@
         <v>546</v>
       </c>
       <c r="B426" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C426" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -9557,10 +9550,10 @@
         <v>289</v>
       </c>
       <c r="B428" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C428" s="2" t="s">
         <v>1145</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -9579,10 +9572,10 @@
         <v>775</v>
       </c>
       <c r="B430" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C430" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -9590,10 +9583,10 @@
         <v>904</v>
       </c>
       <c r="B431" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C431" s="2" t="s">
         <v>906</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -9601,10 +9594,10 @@
         <v>1052</v>
       </c>
       <c r="B432" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>1054</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -9623,10 +9616,10 @@
         <v>510</v>
       </c>
       <c r="B434" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C434" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -9634,10 +9627,10 @@
         <v>1038</v>
       </c>
       <c r="B435" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C435" s="2" t="s">
         <v>1040</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -9645,10 +9638,10 @@
         <v>731</v>
       </c>
       <c r="B436" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -9656,10 +9649,10 @@
         <v>534</v>
       </c>
       <c r="B437" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C437" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -9667,10 +9660,10 @@
         <v>1045</v>
       </c>
       <c r="B438" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C438" s="2" t="s">
         <v>1047</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -9678,10 +9671,10 @@
         <v>403</v>
       </c>
       <c r="B439" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C439" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -9689,10 +9682,10 @@
         <v>455</v>
       </c>
       <c r="B440" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -9700,10 +9693,10 @@
         <v>349</v>
       </c>
       <c r="B441" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C441" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -9711,10 +9704,10 @@
         <v>250</v>
       </c>
       <c r="B442" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C442" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C442" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -9722,10 +9715,10 @@
         <v>1117</v>
       </c>
       <c r="B443" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C443" s="2" t="s">
         <v>1119</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -9733,10 +9726,10 @@
         <v>803</v>
       </c>
       <c r="B444" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C444" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -9744,10 +9737,10 @@
         <v>211</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -9766,10 +9759,10 @@
         <v>316</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -9777,10 +9770,10 @@
         <v>979</v>
       </c>
       <c r="B448" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C448" s="2" t="s">
         <v>981</v>
-      </c>
-      <c r="C448" s="2" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -9788,10 +9781,10 @@
         <v>982</v>
       </c>
       <c r="B449" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C449" s="2" t="s">
         <v>984</v>
-      </c>
-      <c r="C449" s="2" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -9799,10 +9792,10 @@
         <v>96</v>
       </c>
       <c r="B450" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C450" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -9810,10 +9803,10 @@
         <v>585</v>
       </c>
       <c r="B451" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C451" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -9821,10 +9814,10 @@
         <v>63</v>
       </c>
       <c r="B452" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C452" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -9832,10 +9825,10 @@
         <v>1008</v>
       </c>
       <c r="B453" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C453" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -9843,10 +9836,10 @@
         <v>117</v>
       </c>
       <c r="B454" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C454" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -9854,10 +9847,10 @@
         <v>995</v>
       </c>
       <c r="B455" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C455" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="C455" s="2" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -9876,10 +9869,10 @@
         <v>934</v>
       </c>
       <c r="B457" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C457" s="2" t="s">
         <v>936</v>
-      </c>
-      <c r="C457" s="2" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -9887,10 +9880,10 @@
         <v>1086</v>
       </c>
       <c r="B458" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C458" s="2" t="s">
         <v>1088</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -9898,10 +9891,10 @@
         <v>489</v>
       </c>
       <c r="B459" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C459" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -9920,10 +9913,10 @@
         <v>831</v>
       </c>
       <c r="B461" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C461" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -9942,10 +9935,10 @@
         <v>27</v>
       </c>
       <c r="B463" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C463" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -9964,10 +9957,10 @@
         <v>828</v>
       </c>
       <c r="B465" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C465" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -9975,10 +9968,10 @@
         <v>437</v>
       </c>
       <c r="B466" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C466" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="C466" s="2" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -9986,10 +9979,10 @@
         <v>1108</v>
       </c>
       <c r="B467" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C467" s="2" t="s">
         <v>1110</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -9997,10 +9990,10 @@
         <v>183</v>
       </c>
       <c r="B468" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C468" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -10019,10 +10012,10 @@
         <v>352</v>
       </c>
       <c r="B470" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C470" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -10030,10 +10023,10 @@
         <v>1005</v>
       </c>
       <c r="B471" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C471" s="2" t="s">
         <v>1007</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -10041,10 +10034,10 @@
         <v>1028</v>
       </c>
       <c r="B472" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C472" s="2" t="s">
         <v>1030</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -10063,10 +10056,10 @@
         <v>837</v>
       </c>
       <c r="B474" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C474" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -10085,10 +10078,10 @@
         <v>656</v>
       </c>
       <c r="B476" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C476" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -10096,10 +10089,10 @@
         <v>742</v>
       </c>
       <c r="B477" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C477" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -10107,10 +10100,10 @@
         <v>552</v>
       </c>
       <c r="B478" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C478" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -10118,10 +10111,10 @@
         <v>498</v>
       </c>
       <c r="B479" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C479" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -10129,10 +10122,10 @@
         <v>543</v>
       </c>
       <c r="B480" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C480" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="C480" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -10140,10 +10133,10 @@
         <v>848</v>
       </c>
       <c r="B481" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C481" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="C481" s="2" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -10151,10 +10144,10 @@
         <v>778</v>
       </c>
       <c r="B482" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C482" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="C482" s="2" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -10173,10 +10166,10 @@
         <v>549</v>
       </c>
       <c r="B484" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C484" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C484" s="2" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -10195,10 +10188,10 @@
         <v>714</v>
       </c>
       <c r="B486" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C486" s="2" t="s">
         <v>1192</v>
-      </c>
-      <c r="C486" s="2" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -10206,10 +10199,10 @@
         <v>700</v>
       </c>
       <c r="B487" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C487" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="C487" s="2" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -10239,10 +10232,10 @@
         <v>507</v>
       </c>
       <c r="B490" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C490" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C490" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -10250,10 +10243,10 @@
         <v>1058</v>
       </c>
       <c r="B491" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C491" s="2" t="s">
         <v>1060</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -10261,10 +10254,10 @@
         <v>1080</v>
       </c>
       <c r="B492" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C492" s="2" t="s">
         <v>1082</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -10294,10 +10287,10 @@
         <v>322</v>
       </c>
       <c r="B495" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C495" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="C495" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -10305,10 +10298,10 @@
         <v>111</v>
       </c>
       <c r="B496" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C496" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C496" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -10327,10 +10320,10 @@
         <v>1112</v>
       </c>
       <c r="B498" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C498" s="2" t="s">
         <v>1114</v>
-      </c>
-      <c r="C498" s="2" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -10338,10 +10331,10 @@
         <v>150</v>
       </c>
       <c r="B499" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C499" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C499" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -10349,10 +10342,10 @@
         <v>504</v>
       </c>
       <c r="B500" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C500" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -10360,10 +10353,10 @@
         <v>513</v>
       </c>
       <c r="B501" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C501" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="C501" s="2" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -10371,10 +10364,10 @@
         <v>519</v>
       </c>
       <c r="B502" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C502" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -10382,10 +10375,10 @@
         <v>725</v>
       </c>
       <c r="B503" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C503" s="2" t="s">
         <v>1018</v>
-      </c>
-      <c r="C503" s="2" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -10393,10 +10386,10 @@
         <v>382</v>
       </c>
       <c r="B504" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C504" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="C504" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -10415,10 +10408,10 @@
         <v>722</v>
       </c>
       <c r="B506" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C506" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="C506" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -10437,10 +10430,10 @@
         <v>1096</v>
       </c>
       <c r="B508" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C508" s="2" t="s">
         <v>1098</v>
-      </c>
-      <c r="C508" s="2" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -10448,10 +10441,10 @@
         <v>159</v>
       </c>
       <c r="B509" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C509" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C509" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -10470,10 +10463,10 @@
         <v>811</v>
       </c>
       <c r="B511" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C511" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="C511" s="2" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -10481,10 +10474,10 @@
         <v>647</v>
       </c>
       <c r="B512" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C512" s="2" t="s">
         <v>1218</v>
-      </c>
-      <c r="C512" s="2" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -10492,10 +10485,10 @@
         <v>697</v>
       </c>
       <c r="B513" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C513" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="C513" s="2" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -10514,10 +10507,10 @@
         <v>18</v>
       </c>
       <c r="B515" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C515" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -10536,10 +10529,10 @@
         <v>400</v>
       </c>
       <c r="B517" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C517" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="C517" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -10580,10 +10573,10 @@
         <v>465</v>
       </c>
       <c r="B521" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C521" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="C521" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -10591,10 +10584,10 @@
         <v>617</v>
       </c>
       <c r="B522" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C522" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="C522" s="2" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -10602,10 +10595,10 @@
         <v>385</v>
       </c>
       <c r="B523" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C523" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C523" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -10624,10 +10617,10 @@
         <v>797</v>
       </c>
       <c r="B525" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C525" s="2" t="s">
         <v>1237</v>
-      </c>
-      <c r="C525" s="2" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -10635,10 +10628,10 @@
         <v>205</v>
       </c>
       <c r="B526" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C526" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C526" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -10646,10 +10639,10 @@
         <v>358</v>
       </c>
       <c r="B527" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C527" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C527" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -10657,10 +10650,10 @@
         <v>634</v>
       </c>
       <c r="B528" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C528" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="C528" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -10668,10 +10661,10 @@
         <v>199</v>
       </c>
       <c r="B529" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C529" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C529" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -10679,10 +10672,10 @@
         <v>582</v>
       </c>
       <c r="B530" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C530" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="C530" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -10690,10 +10683,10 @@
         <v>177</v>
       </c>
       <c r="B531" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C531" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C531" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -10701,10 +10694,10 @@
         <v>75</v>
       </c>
       <c r="B532" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C532" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C532" s="2" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -10712,10 +10705,10 @@
         <v>1123</v>
       </c>
       <c r="B533" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C533" s="2" t="s">
         <v>1125</v>
-      </c>
-      <c r="C533" s="2" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -10745,10 +10738,10 @@
         <v>214</v>
       </c>
       <c r="B536" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C536" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C536" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -10756,10 +10749,10 @@
         <v>1031</v>
       </c>
       <c r="B537" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C537" s="2" t="s">
         <v>1033</v>
-      </c>
-      <c r="C537" s="2" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -10767,10 +10760,10 @@
         <v>331</v>
       </c>
       <c r="B538" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C538" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C538" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -10778,10 +10771,10 @@
         <v>992</v>
       </c>
       <c r="B539" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C539" s="2" t="s">
         <v>1245</v>
-      </c>
-      <c r="C539" s="2" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -10800,10 +10793,10 @@
         <v>516</v>
       </c>
       <c r="B541" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C541" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="C541" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -10811,10 +10804,10 @@
         <v>641</v>
       </c>
       <c r="B542" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C542" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="C542" s="2" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -10822,10 +10815,10 @@
         <v>573</v>
       </c>
       <c r="B543" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C543" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="C543" s="2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -10833,10 +10826,10 @@
         <v>814</v>
       </c>
       <c r="B544" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C544" s="2" t="s">
         <v>816</v>
-      </c>
-      <c r="C544" s="2" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -10844,10 +10837,10 @@
         <v>186</v>
       </c>
       <c r="B545" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C545" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C545" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -10855,10 +10848,10 @@
         <v>196</v>
       </c>
       <c r="B546" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C546" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C546" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -10866,10 +10859,10 @@
         <v>428</v>
       </c>
       <c r="B547" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C547" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="C547" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -10877,10 +10870,10 @@
         <v>1061</v>
       </c>
       <c r="B548" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C548" s="2" t="s">
         <v>1063</v>
-      </c>
-      <c r="C548" s="2" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -10921,10 +10914,10 @@
         <v>676</v>
       </c>
       <c r="B552" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C552" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="C552" s="2" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -10943,10 +10936,10 @@
         <v>1003</v>
       </c>
       <c r="B554" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C554" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C554" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -10954,10 +10947,10 @@
         <v>431</v>
       </c>
       <c r="B555" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C555" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="C555" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -10965,10 +10958,10 @@
         <v>831</v>
       </c>
       <c r="B556" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C556" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="C556" s="2" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -10976,10 +10969,10 @@
         <v>697</v>
       </c>
       <c r="B557" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C557" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="C557" s="2" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -10987,10 +10980,10 @@
         <v>1231</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1232</v>
+        <v>1262</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1262</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -10998,10 +10991,10 @@
         <v>1162</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1163</v>
+        <v>1263</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1263</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -11009,10 +11002,10 @@
         <v>385</v>
       </c>
       <c r="B560" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C560" s="2" t="s">
         <v>1264</v>
-      </c>
-      <c r="C560" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -11020,10 +11013,10 @@
         <v>45</v>
       </c>
       <c r="B561" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C561" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C561" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -11031,10 +11024,10 @@
         <v>973</v>
       </c>
       <c r="B562" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C562" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="C562" s="2" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -11042,10 +11035,10 @@
         <v>892</v>
       </c>
       <c r="B563" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C563" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="C563" s="2" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -11053,10 +11046,10 @@
         <v>820</v>
       </c>
       <c r="B564" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C564" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="C564" s="2" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -11064,10 +11057,10 @@
         <v>711</v>
       </c>
       <c r="B565" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C565" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="C565" s="2" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -11075,10 +11068,10 @@
         <v>858</v>
       </c>
       <c r="B566" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C566" s="2" t="s">
         <v>860</v>
-      </c>
-      <c r="C566" s="2" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -11086,10 +11079,10 @@
         <v>760</v>
       </c>
       <c r="B567" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C567" s="2" t="s">
         <v>762</v>
-      </c>
-      <c r="C567" s="2" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -11097,10 +11090,10 @@
         <v>842</v>
       </c>
       <c r="B568" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C568" s="2" t="s">
         <v>1267</v>
-      </c>
-      <c r="C568" s="2" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -11108,10 +11101,10 @@
         <v>443</v>
       </c>
       <c r="B569" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C569" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C569" s="2" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -11119,10 +11112,10 @@
         <v>361</v>
       </c>
       <c r="B570" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C570" s="2" t="s">
         <v>1269</v>
-      </c>
-      <c r="C570" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -11130,10 +11123,10 @@
         <v>750</v>
       </c>
       <c r="B571" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C571" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="C571" s="2" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -11141,10 +11134,10 @@
         <v>268</v>
       </c>
       <c r="B572" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C572" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C572" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -11152,10 +11145,10 @@
         <v>873</v>
       </c>
       <c r="B573" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C573" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="C573" s="2" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -11174,10 +11167,10 @@
         <v>319</v>
       </c>
       <c r="B575" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C575" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C575" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -11185,10 +11178,10 @@
         <v>416</v>
       </c>
       <c r="B576" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C576" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="C576" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -11207,10 +11200,10 @@
         <v>1101</v>
       </c>
       <c r="B578" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C578" s="2" t="s">
         <v>1103</v>
-      </c>
-      <c r="C578" s="2" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -11218,10 +11211,10 @@
         <v>540</v>
       </c>
       <c r="B579" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C579" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="C579" s="2" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -11229,10 +11222,296 @@
         <v>876</v>
       </c>
       <c r="B580" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C580" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="C580" s="2" t="s">
-        <v>1277</v>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" t="s">
+        <v>534</v>
+      </c>
+      <c r="B581" t="s">
+        <v>535</v>
+      </c>
+      <c r="C581" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" t="s">
+        <v>537</v>
+      </c>
+      <c r="B582" t="s">
+        <v>538</v>
+      </c>
+      <c r="C582" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" t="s">
+        <v>540</v>
+      </c>
+      <c r="B583" t="s">
+        <v>541</v>
+      </c>
+      <c r="C583" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" t="s">
+        <v>543</v>
+      </c>
+      <c r="B584" t="s">
+        <v>544</v>
+      </c>
+      <c r="C584" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" t="s">
+        <v>546</v>
+      </c>
+      <c r="B585" t="s">
+        <v>547</v>
+      </c>
+      <c r="C585" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" t="s">
+        <v>549</v>
+      </c>
+      <c r="B586" t="s">
+        <v>550</v>
+      </c>
+      <c r="C586" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" t="s">
+        <v>552</v>
+      </c>
+      <c r="B587" t="s">
+        <v>553</v>
+      </c>
+      <c r="C587" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" t="s">
+        <v>36</v>
+      </c>
+      <c r="B598" t="s">
+        <v>37</v>
+      </c>
+      <c r="C598" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" t="s">
+        <v>39</v>
+      </c>
+      <c r="B599" t="s">
+        <v>40</v>
+      </c>
+      <c r="C599" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" t="s">
+        <v>42</v>
+      </c>
+      <c r="B600" t="s">
+        <v>43</v>
+      </c>
+      <c r="C600" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" t="s">
+        <v>45</v>
+      </c>
+      <c r="B601" t="s">
+        <v>46</v>
+      </c>
+      <c r="C601" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" t="s">
+        <v>48</v>
+      </c>
+      <c r="B602" t="s">
+        <v>49</v>
+      </c>
+      <c r="C602" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" t="s">
+        <v>51</v>
+      </c>
+      <c r="B603" t="s">
+        <v>52</v>
+      </c>
+      <c r="C603" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" t="s">
+        <v>54</v>
+      </c>
+      <c r="B604" t="s">
+        <v>55</v>
+      </c>
+      <c r="C604" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" t="s">
+        <v>57</v>
+      </c>
+      <c r="B605" t="s">
+        <v>58</v>
+      </c>
+      <c r="C605" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" t="s">
+        <v>60</v>
+      </c>
+      <c r="B606" t="s">
+        <v>61</v>
+      </c>
+      <c r="C606" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
